--- a/learngit/pell-8.30.xlsx
+++ b/learngit/pell-8.30.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="258">
   <si>
     <t>货号</t>
   </si>
@@ -866,6 +866,18 @@
   </si>
   <si>
     <t>米1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已退回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止到9.14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -876,7 +888,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -922,6 +934,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -937,7 +957,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -960,6 +980,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -967,7 +998,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -996,6 +1027,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1291,10 +1328,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N82" sqref="N82"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="L82" sqref="L82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1308,9 +1345,10 @@
     <col min="7" max="7" width="12.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.75" style="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1341,8 +1379,11 @@
       <c r="J1" s="7" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
         <v>103</v>
       </c>
@@ -1372,7 +1413,7 @@
       </c>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
         <v>173</v>
       </c>
@@ -1400,7 +1441,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
         <v>175</v>
       </c>
@@ -1428,7 +1469,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
         <v>177</v>
       </c>
@@ -1458,7 +1499,7 @@
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
         <v>180</v>
       </c>
@@ -1488,7 +1529,7 @@
       </c>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1518,7 +1559,7 @@
       </c>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1548,7 +1589,7 @@
       </c>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="3" t="s">
         <v>185</v>
       </c>
@@ -1578,7 +1619,7 @@
       </c>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="3" t="s">
         <v>187</v>
       </c>
@@ -1606,7 +1647,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="3" t="s">
         <v>190</v>
       </c>
@@ -1634,7 +1675,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="3" t="s">
         <v>191</v>
       </c>
@@ -1664,7 +1705,7 @@
       </c>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
         <v>193</v>
       </c>
@@ -1694,7 +1735,7 @@
       </c>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
         <v>196</v>
       </c>
@@ -1724,7 +1765,7 @@
       </c>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="3" t="s">
         <v>197</v>
       </c>
@@ -1754,7 +1795,7 @@
       </c>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -1782,7 +1823,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="A17" s="3" t="s">
         <v>198</v>
       </c>
@@ -1810,7 +1851,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
         <v>200</v>
       </c>
@@ -1838,7 +1879,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
@@ -1866,7 +1907,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:11">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
@@ -1894,7 +1935,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:11">
       <c r="A21" s="3" t="s">
         <v>204</v>
       </c>
@@ -1924,7 +1965,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:11">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
@@ -1954,7 +1995,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:11">
       <c r="A23" s="3" t="s">
         <v>207</v>
       </c>
@@ -1984,7 +2025,7 @@
       </c>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:11">
       <c r="A24" s="3" t="s">
         <v>31</v>
       </c>
@@ -2012,7 +2053,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:11">
       <c r="A25" s="3" t="s">
         <v>210</v>
       </c>
@@ -2042,7 +2083,7 @@
       </c>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:11">
       <c r="A26" s="3" t="s">
         <v>212</v>
       </c>
@@ -2072,7 +2113,7 @@
       </c>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:11">
       <c r="A27" s="3" t="s">
         <v>34</v>
       </c>
@@ -2100,7 +2141,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:11">
       <c r="A28" s="3" t="s">
         <v>35</v>
       </c>
@@ -2130,7 +2171,7 @@
       </c>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:11">
       <c r="A29" s="3" t="s">
         <v>217</v>
       </c>
@@ -2161,8 +2202,11 @@
       <c r="J29" s="3" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="3" t="s">
         <v>37</v>
       </c>
@@ -2194,7 +2238,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:11">
       <c r="A31" s="3" t="s">
         <v>221</v>
       </c>
@@ -2226,7 +2270,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:11">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -2256,7 +2300,7 @@
       </c>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:11">
       <c r="A33" s="3" t="s">
         <v>223</v>
       </c>
@@ -2285,8 +2329,11 @@
         <v>181</v>
       </c>
       <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="3" t="s">
         <v>225</v>
       </c>
@@ -2316,7 +2363,7 @@
       </c>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:11">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
@@ -2346,7 +2393,7 @@
       </c>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:11">
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
@@ -2376,7 +2423,7 @@
       </c>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:11">
       <c r="A37" s="3" t="s">
         <v>229</v>
       </c>
@@ -2406,7 +2453,7 @@
       </c>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:11">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -2436,7 +2483,7 @@
       </c>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:11">
       <c r="A39" s="3" t="s">
         <v>48</v>
       </c>
@@ -2463,8 +2510,11 @@
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="3" t="s">
         <v>49</v>
       </c>
@@ -2491,8 +2541,11 @@
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="3" t="s">
         <v>50</v>
       </c>
@@ -2520,7 +2573,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:11">
       <c r="A42" s="3" t="s">
         <v>51</v>
       </c>
@@ -2548,8 +2601,11 @@
       <c r="J42" s="3" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="3" t="s">
         <v>235</v>
       </c>
@@ -2579,7 +2635,7 @@
       </c>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:11">
       <c r="A44" s="3" t="s">
         <v>53</v>
       </c>
@@ -2609,7 +2665,7 @@
       </c>
       <c r="J44" s="3"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:11">
       <c r="A45" s="3" t="s">
         <v>238</v>
       </c>
@@ -2637,7 +2693,7 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:11">
       <c r="A46" s="3" t="s">
         <v>240</v>
       </c>
@@ -2664,8 +2720,11 @@
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="3" t="s">
         <v>56</v>
       </c>
@@ -2695,7 +2754,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:11">
       <c r="A48" s="3" t="s">
         <v>243</v>
       </c>
@@ -2724,6 +2783,9 @@
       <c r="J48" s="3" t="s">
         <v>219</v>
       </c>
+      <c r="K48" s="12" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="3" t="s">
@@ -3637,7 +3699,7 @@
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:11">
       <c r="A81" s="3" t="s">
         <v>91</v>
       </c>
@@ -3665,7 +3727,7 @@
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:11">
       <c r="A82" s="3" t="s">
         <v>92</v>
       </c>
@@ -3693,7 +3755,7 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:11">
       <c r="A83" s="3" t="s">
         <v>93</v>
       </c>
@@ -3721,7 +3783,7 @@
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:11">
       <c r="A84" s="3" t="s">
         <v>94</v>
       </c>
@@ -3749,7 +3811,7 @@
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:11">
       <c r="A85" s="3" t="s">
         <v>95</v>
       </c>
@@ -3777,7 +3839,7 @@
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:11">
       <c r="A86" s="3" t="s">
         <v>96</v>
       </c>
@@ -3804,6 +3866,9 @@
       </c>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
+      <c r="K86" s="12" t="s">
+        <v>257</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
